--- a/Documentos/BD_TecnologiaInformatica.xlsx
+++ b/Documentos/BD_TecnologiaInformatica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dany_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dany_\Documents\Tecnologia Informatica\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E130224A-0565-4CA6-AD60-D7C29FA85C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1C7ED8-516A-4629-8770-3D9359D101AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{1E379E50-A616-4AB0-874D-4C8CA2D6EF82}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Usuario</t>
   </si>
@@ -50,24 +50,12 @@
     <t>SoftDeletes</t>
   </si>
   <si>
-    <t>Profesor</t>
-  </si>
-  <si>
     <t>idUsuario (PK)</t>
   </si>
   <si>
-    <t>idProfesor (PK)</t>
-  </si>
-  <si>
     <t>idUsuario (FK)</t>
   </si>
   <si>
-    <t>FotoPerfil</t>
-  </si>
-  <si>
-    <t>Alumno</t>
-  </si>
-  <si>
     <t>Curso</t>
   </si>
   <si>
@@ -101,9 +89,6 @@
     <t>Nombre Director</t>
   </si>
   <si>
-    <t>idAlumno (PK)</t>
-  </si>
-  <si>
     <t>Tarea</t>
   </si>
   <si>
@@ -116,9 +101,6 @@
     <t>Fecha Entrega</t>
   </si>
   <si>
-    <t>Detalle Tarea</t>
-  </si>
-  <si>
     <t>idDetalleTarea (PK)</t>
   </si>
   <si>
@@ -156,6 +138,21 @@
   </si>
   <si>
     <t>idInscripcion (PK)</t>
+  </si>
+  <si>
+    <t>idTarea(FK)</t>
+  </si>
+  <si>
+    <t>TareaCalificada</t>
+  </si>
+  <si>
+    <t>idTareaCalificada(PK)</t>
+  </si>
+  <si>
+    <t>idAlumno(FK)</t>
+  </si>
+  <si>
+    <t>DetalleTarea</t>
   </si>
 </sst>
 </file>
@@ -553,7 +550,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +559,7 @@
     <col min="2" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="1"/>
     <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
@@ -572,75 +569,65 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>4</v>
@@ -653,83 +640,83 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -739,39 +726,39 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>4</v>
@@ -779,7 +766,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
